--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1776805.508038511</v>
+        <v>1762181.853183767</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1861185.768789562</v>
+        <v>1910744.735791024</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2357862.325109814</v>
+        <v>2235377.592553681</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10121050.79496004</v>
+        <v>10168702.23182246</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>414.0211364340543</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.3496050441492</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>161.0669638920413</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>69.36374403171267</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>179.8155849511184</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>100.5173765574238</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>116.8083228660698</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>25.85673197925241</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>57.58322759778503</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>158.9462780012789</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>197.4008078539121</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.896269118392</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>85.92645860395754</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4160972341789</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>52.71501393008687</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>180.2902145339186</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>182.0600429546849</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>335.3428232754961</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1028,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>272.8282781384908</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.735920110877182</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.888834254466764</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>73.97029930526111</v>
       </c>
       <c r="F11" t="n">
-        <v>22.80873594162906</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.3542113413185</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>319.5194584381686</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>135.3553342543441</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.3009637486068</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>102.1665731007175</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>53.50170169071348</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.42807039329385</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S12" t="n">
-        <v>152.3181986878415</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>195.9625068175369</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8727930405404</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.97296450542819</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>137.9932954615216</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.7844338901269</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>224.2110473578499</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>241.6839639791557</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>48.33215176012787</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.97029930526853</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
@@ -1627,7 +1627,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>153.0579994979489</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>128.0668698162166</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>91.89865344519217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>171.9630100193226</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>61.22283783146005</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>285.5894037095134</v>
+        <v>225.5650375952926</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>155.0431069790544</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>379.0016297498522</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>102.7415948003992</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>83.34924931100626</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>140.5678108961689</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>14.73664328357187</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>14.73664328357057</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>96.47406323660249</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>22.92132682626281</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.107731335945625</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>83.53293045533964</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4030,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.92969084765558</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>148.7416974947219</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1738.956526657567</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1369.994009717155</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1369.994009717155</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1369.994009717155</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>959.0081049275479</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>540.8049368123416</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>211.1588711111808</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>48.46496818992689</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>144.3217185866818</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>408.7309433799512</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>789.0305949412298</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1228.793778674166</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1661.040792932343</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2024.011753583431</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2296.124687961634</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.248409496345</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2353.184021585524</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2171.552117594495</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2070.019414001138</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2070.019414001138</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1738.956526657567</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1738.956526657567</v>
       </c>
       <c r="X2" t="n">
-        <v>2171.363541363379</v>
+        <v>1738.956526657567</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>1738.956526657567</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>703.7423312010296</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>529.2893019199026</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>380.3548922586514</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>221.1174372531959</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>74.58287928008085</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>48.46496818992689</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>48.46496818992689</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>48.46496818992689</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>48.46496818992689</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>283.4435085130164</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>660.8055504171996</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1153.148475942056</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1674.229267080915</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2084.500711326192</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2396.776647825072</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.248409496345</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2365.083533134946</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2204.531737174058</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2005.136981766066</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>1776.958932151529</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1541.806823919786</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1287.569467191584</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1079.717966986052</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>871.9576682210977</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.4236418782191</v>
+        <v>270.8196259316095</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6292392479589</v>
+        <v>270.8196259316095</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>270.8196259316095</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>270.8196259316095</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>270.8196259316095</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>101.7124570081965</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>101.7124570081965</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>101.7124570081965</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>48.46496818992689</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>92.54111321697204</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>204.4698385689401</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>332.8721089817805</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>463.6558768192424</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>568.4395588688707</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>634.5794185738882</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>634.5794185738882</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>634.5794185738882</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>634.5794185738882</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>634.5794185738882</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>634.5794185738882</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>634.5794185738882</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>634.5794185738882</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782191</v>
+        <v>452.4680907618492</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.4236418782191</v>
+        <v>452.4680907618492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="D5" t="n">
         <v>1363.553390680693</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.452423968253</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
         <v>814.0449459359563</v>
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4676,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>907.9023860081004</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>496.9164812184928</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>482.9930771570837</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2691.355232320367</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2360.292344976796</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2360.292344976796</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.826586715716</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4895,19 +4895,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>352.6741383092202</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>352.6741383092202</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>204.7610447268271</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>57.87109722891674</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>57.87109722891674</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>57.87109722891674</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>57.87109722891674</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.148784128488</v>
+        <v>1783.661558493311</v>
       </c>
       <c r="C11" t="n">
-        <v>1322.186267188076</v>
+        <v>1414.699041552899</v>
       </c>
       <c r="D11" t="n">
-        <v>963.9205685813261</v>
+        <v>1414.699041552899</v>
       </c>
       <c r="E11" t="n">
-        <v>963.9205685813261</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F11" t="n">
-        <v>940.8814413675593</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G11" t="n">
-        <v>523.351934962187</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>200.6050072468651</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>215.777587044437</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K11" t="n">
-        <v>564.173830875148</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
-        <v>1048.666806192614</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>1604.365138508498</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.42325326016</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>2628.639895377753</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.698445127813</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>3194.122369699616</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>3194.122369699616</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>3194.122369699616</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>3194.122369699616</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U11" t="n">
-        <v>3194.122369699616</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V11" t="n">
-        <v>3194.122369699616</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W11" t="n">
-        <v>2841.353714429501</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X11" t="n">
-        <v>2467.887956168422</v>
+        <v>2173.800890469122</v>
       </c>
       <c r="Y11" t="n">
-        <v>2077.74862419261</v>
+        <v>1783.661558493311</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.960322082656</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>813.507292801529</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.5728831402778</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>505.3354281348223</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.8008701617073</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.1231290014984</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9245703139049</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K12" t="n">
-        <v>355.9060257624177</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L12" t="n">
-        <v>608.045454921595</v>
+        <v>645.9611546560948</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.898439600621</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.858354813966</v>
+        <v>1959.712196375981</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.181247543512</v>
+        <v>2509.148205128703</v>
       </c>
       <c r="P12" t="n">
-        <v>2676.915881557612</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2676.915881557612</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2641.129951867416</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2487.273185516061</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.331259437741</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.176923033155</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.024814801412</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.787458073211</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.935957867678</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.175659102724</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>63.88244739399232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>142.3679338555474</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>298.3287695220676</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M13" t="n">
-        <v>473.1567265041767</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N13" t="n">
-        <v>649.2622818508019</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O13" t="n">
-        <v>795.9079702090187</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P13" t="n">
-        <v>897.8680081960957</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>884.7640036451581</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>745.376836512308</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>534.4834689465233</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>308.0076635345537</v>
+        <v>848.2972798983277</v>
       </c>
       <c r="U13" t="n">
-        <v>63.88244739399232</v>
+        <v>559.1451034760075</v>
       </c>
       <c r="V13" t="n">
-        <v>63.88244739399232</v>
+        <v>304.4606152701207</v>
       </c>
       <c r="W13" t="n">
-        <v>63.88244739399232</v>
+        <v>304.4606152701207</v>
       </c>
       <c r="X13" t="n">
-        <v>63.88244739399232</v>
+        <v>255.6402599568602</v>
       </c>
       <c r="Y13" t="n">
-        <v>63.88244739399232</v>
+        <v>255.6402599568602</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1708.944084447592</v>
+        <v>2042.012130862979</v>
       </c>
       <c r="C14" t="n">
-        <v>1339.98156750718</v>
+        <v>1673.049613922568</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.98156750718</v>
+        <v>1314.783915315817</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.98156750718</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="F14" t="n">
-        <v>928.9956627175729</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G14" t="n">
-        <v>511.9078809540003</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604024</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331032</v>
+        <v>3544.985716434107</v>
       </c>
       <c r="T14" t="n">
-        <v>3484.789894598744</v>
+        <v>3544.985716434107</v>
       </c>
       <c r="U14" t="n">
-        <v>3231.098191343895</v>
+        <v>3544.985716434107</v>
       </c>
       <c r="V14" t="n">
-        <v>2900.035304000324</v>
+        <v>3544.985716434107</v>
       </c>
       <c r="W14" t="n">
-        <v>2547.266648730209</v>
+        <v>3192.217061163993</v>
       </c>
       <c r="X14" t="n">
-        <v>2173.80089046913</v>
+        <v>2818.751302902913</v>
       </c>
       <c r="Y14" t="n">
-        <v>1783.661558493318</v>
+        <v>2428.611970927101</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363042</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>157.3616934996454</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L15" t="n">
-        <v>661.7232333657639</v>
+        <v>645.9611546560948</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.268582832869</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N15" t="n">
-        <v>1975.474275085651</v>
+        <v>1959.712196375981</v>
       </c>
       <c r="O15" t="n">
-        <v>2524.910283838374</v>
+        <v>2509.148205128703</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365673</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
         <v>2635.224952969837</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.86638288598326</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="C16" t="n">
-        <v>91.86638288598326</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="D16" t="n">
-        <v>91.86638288598326</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="E16" t="n">
-        <v>91.86638288598326</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F16" t="n">
-        <v>91.86638288598326</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>91.86638288598326</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>91.86638288598326</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>91.86638288598326</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222305</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230489</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422868</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783911</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O16" t="n">
-        <v>945.06058056699</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165606</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>736.0082305577735</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>510.3790338701384</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>221.2268574478182</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V16" t="n">
-        <v>91.86638288598326</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="W16" t="n">
-        <v>91.86638288598326</v>
+        <v>495.3571301266819</v>
       </c>
       <c r="X16" t="n">
-        <v>91.86638288598326</v>
+        <v>402.5302074547706</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.86638288598326</v>
+        <v>402.5302074547706</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.774920425096</v>
+        <v>2042.012130862979</v>
       </c>
       <c r="C17" t="n">
-        <v>1765.812403484685</v>
+        <v>1673.049613922568</v>
       </c>
       <c r="D17" t="n">
-        <v>1407.546704877934</v>
+        <v>1314.783915315817</v>
       </c>
       <c r="E17" t="n">
-        <v>1021.75845227969</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="F17" t="n">
-        <v>610.7725474900824</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G17" t="n">
-        <v>193.6847657265099</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H17" t="n">
-        <v>193.6847657265099</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604022</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U17" t="n">
-        <v>3637.748505996224</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V17" t="n">
-        <v>3637.748505996224</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="W17" t="n">
-        <v>3284.97985072611</v>
+        <v>2605.851472959319</v>
       </c>
       <c r="X17" t="n">
-        <v>2911.51409246503</v>
+        <v>2605.851472959319</v>
       </c>
       <c r="Y17" t="n">
-        <v>2521.374760489218</v>
+        <v>2215.712140983507</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363042</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99179512662064</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>316.6325031462255</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>820.994043012344</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1461.539392479449</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N18" t="n">
-        <v>1660.196134132113</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O18" t="n">
-        <v>2209.632142884836</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
         <v>2635.224952969837</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221.9048887090138</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C19" t="n">
-        <v>221.9048887090138</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D19" t="n">
-        <v>221.9048887090138</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222305</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230489</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422868</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783911</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>945.06058056699</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165606</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>736.0082305577735</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>510.3790338701384</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>221.9048887090138</v>
+        <v>846.0830042674853</v>
       </c>
       <c r="V19" t="n">
-        <v>221.9048887090138</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W19" t="n">
-        <v>221.9048887090138</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9048887090138</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y19" t="n">
-        <v>221.9048887090138</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1865.553283416334</v>
+        <v>1611.861580161478</v>
       </c>
       <c r="C20" t="n">
-        <v>1496.590766475922</v>
+        <v>1611.861580161478</v>
       </c>
       <c r="D20" t="n">
-        <v>1496.590766475922</v>
+        <v>1253.595881554727</v>
       </c>
       <c r="E20" t="n">
-        <v>1339.98156750718</v>
+        <v>867.8076289564829</v>
       </c>
       <c r="F20" t="n">
-        <v>928.9956627175729</v>
+        <v>456.8217241668753</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540003</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H20" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604023</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331032</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V20" t="n">
-        <v>3368.526868987462</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W20" t="n">
-        <v>3015.758213717347</v>
+        <v>2762.066510462491</v>
       </c>
       <c r="X20" t="n">
-        <v>2642.292455456267</v>
+        <v>2388.600752201411</v>
       </c>
       <c r="Y20" t="n">
-        <v>2252.153123480456</v>
+        <v>1998.461420225599</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
         <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363042</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662064</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>141.5996147899776</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>645.9611546560961</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.506504123201</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.712196375983</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2509.148205128706</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
         <v>2635.224952969837</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>625.1443465444178</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C22" t="n">
-        <v>625.1443465444178</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D22" t="n">
-        <v>625.1443465444178</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E22" t="n">
-        <v>625.1443465444178</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F22" t="n">
-        <v>521.3649578571459</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G22" t="n">
-        <v>352.7581128525293</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H22" t="n">
-        <v>198.5034697522944</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222304</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669898</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585965</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="T22" t="n">
-        <v>1073.926476585965</v>
+        <v>640.856995150733</v>
       </c>
       <c r="U22" t="n">
-        <v>1073.926476585965</v>
+        <v>640.856995150733</v>
       </c>
       <c r="V22" t="n">
-        <v>1073.926476585965</v>
+        <v>386.1725069448462</v>
       </c>
       <c r="W22" t="n">
-        <v>1073.926476585965</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X22" t="n">
-        <v>845.9369256879479</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y22" t="n">
-        <v>625.1443465444178</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3138.955990222747</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>3446.276123502709</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>3776.138751166742</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4055.678816385439</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4575.979438121187</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507269</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4326.074044281177</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>4326.074044281177</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>4326.074044281177</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3190.928350499668</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3959.29649689213</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265285</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483982</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3941.006808105545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3772.070625177638</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3621.953985765302</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3474.040892182909</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>4571.437402977332</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>4122.655272935785</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6733,13 +6733,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>177.1795914149472</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>326.249275617007</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>773.166147484815</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C34" t="n">
-        <v>604.2299645569082</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D34" t="n">
-        <v>454.1133251445724</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E34" t="n">
-        <v>306.2002315621793</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F34" t="n">
-        <v>306.2002315621793</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>306.2002315621793</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6894,16 +6894,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>954.8146123150548</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y34" t="n">
-        <v>954.8146123150548</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6943,13 +6943,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>565.2896273329885</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>565.2896273329885</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028587</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.6350999123426</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123426</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W46" t="n">
-        <v>531.109187020113</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X46" t="n">
-        <v>303.1196361220957</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y46" t="n">
-        <v>303.1196361220957</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>62.05240486685048</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>79.18974975523609</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>28.33919200008414</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>166.8739754126497</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>15.92129162593254</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.9007452323834</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K15" t="n">
-        <v>15.92129162592695</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>15.92129162593254</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>176.8008973295432</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>48.10560617264096</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617264085</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>15.92129162592732</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.7396287231142</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>32.78140656352281</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>38.86002301949867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.47535963978233</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.9600707670007</v>
       </c>
       <c r="F11" t="n">
-        <v>384.0673098000824</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.47001067514697</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.6180294004011</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>214.5661762382495</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1897708139312</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.1169375972939</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>154.456146667265</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>129.165655418774</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>31.56442760231905</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>44.58739037218075</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>177.3775036289093</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>308.763542358212</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>1.594887630191465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23673,10 +23673,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>124.0707735076114</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>133.811001943845</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>210.770831644158</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>189.9319483908406</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176898</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6712509485836335</v>
+        <v>60.69561706280436</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>226.8872630932074</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>33.91527419608457</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>42.67945322253209</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>203.1737490255848</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>8.047662122043477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>79.43092547709122</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>130.6844047393594</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>130.6844047393607</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>52.43976513093364</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>144.325494272365</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.4769220161492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.34209567542518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>96.29904972659766</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25842,13 +25842,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.9022893342817</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>103.3959458291061</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>950245.7197032245</v>
+        <v>950005.6603954531</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730135.0648502974</v>
+        <v>784006.4847982877</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>784006.4847982882</v>
+        <v>784006.4847982876</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>784006.4847982881</v>
+        <v>784006.4847982877</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>784006.4847982883</v>
+        <v>784006.4847982876</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>391548.3864776191</v>
+        <v>422169.5696166539</v>
       </c>
       <c r="F2" t="n">
-        <v>422169.5696166546</v>
+        <v>422169.569616654</v>
       </c>
       <c r="G2" t="n">
-        <v>422169.5696166545</v>
+        <v>422169.5696166541</v>
       </c>
       <c r="H2" t="n">
-        <v>422169.5696166545</v>
+        <v>422169.5696166541</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
@@ -26349,13 +26349,13 @@
         <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>510219.7254915914</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>75798.11511816824</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123022.0575261855</v>
+        <v>248146.7686188426</v>
       </c>
       <c r="F3" t="n">
-        <v>122192.1638359361</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990979</v>
+        <v>255532.1595990994</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>158507.1017135654</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>17623.31765048067</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30961.93223512944</v>
+        <v>62453.05588965286</v>
       </c>
       <c r="N3" t="n">
-        <v>30950.65265136823</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165632.8677865244</v>
+        <v>187322.998442089</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26426,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>25923.68944646596</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="F4" t="n">
-        <v>24740.78594361632</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="G4" t="n">
-        <v>24740.78594361632</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="H4" t="n">
-        <v>24740.78594361632</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>77410.77808677492</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>59117.03032849776</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360151</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360151</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360151</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993016</v>
+        <v>-261802.3958552784</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152429</v>
+        <v>188861.0451970747</v>
       </c>
       <c r="D6" t="n">
         <v>264659.1603152431</v>
       </c>
       <c r="E6" t="n">
-        <v>183485.6091764699</v>
+        <v>76471.21030865265</v>
       </c>
       <c r="F6" t="n">
-        <v>206065.0765535007</v>
+        <v>324617.9789274953</v>
       </c>
       <c r="G6" t="n">
-        <v>328257.2403894367</v>
+        <v>324617.9789274954</v>
       </c>
       <c r="H6" t="n">
-        <v>328257.2403894367</v>
+        <v>324617.9789274954</v>
       </c>
       <c r="I6" t="n">
-        <v>119092.2315374508</v>
+        <v>118117.6402777274</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439556</v>
+        <v>215142.6981632615</v>
       </c>
       <c r="K6" t="n">
-        <v>374624.3911365487</v>
+        <v>356026.4822263463</v>
       </c>
       <c r="L6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="M6" t="n">
-        <v>343662.4589014192</v>
+        <v>311196.7439871741</v>
       </c>
       <c r="N6" t="n">
-        <v>343673.7384851802</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="O6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768268</v>
       </c>
       <c r="P6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768269</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>318.79826891883</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>484.6958857368622</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>605.8121023740862</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>798.5305924249039</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>318.79826891883</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58.94539529825664</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.9522215197755</v>
+        <v>215.7324361209768</v>
       </c>
       <c r="F3" t="n">
-        <v>108.7802146012028</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160354</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>605.8121023740862</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>68.47517038046946</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2433196703484</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3668466578541</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708152</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>605.8121023740862</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>68.47517038046946</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703481</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578541</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>605.8121023740862</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>68.47517038046946</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703484</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578541</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>116.9682642742767</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>251.2431248213501</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>252.9227778123993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>110.8010681526988</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6128613293336</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.78751576638851</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>81.32036249467029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>157.1159478024787</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>138.162201589824</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.02350464495106</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>151.4446005890952</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.9979704711133</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>225.4892748972676</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.287672149712</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>45.41944085511855</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200.6737987087957</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>19.34021834518683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27669,7 +27669,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>53.95978732560567</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>51.09449462586639</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>245.4882473974121</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>41.31112493407023</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.281601081080723</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>13.12519707161795</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>49.4089256783646</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>108.7742897553751</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>163.0244635175221</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>202.2462626026463</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>225.0379358283156</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>228.6792848999362</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>215.9353641499398</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>184.2958374607594</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>138.398498744556</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>80.50537390943701</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>29.204484635127</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>5.610208732430866</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1025280864864578</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.6857170312593702</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>6.622582907162866</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>23.60911708502656</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>64.78522179981621</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>110.728262894194</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>148.8878141776102</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>173.7450565607623</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>178.3435712133745</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>163.1495254154695</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>130.9418776621511</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>87.53117753409084</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>42.57460655485811</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>12.73689310255891</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>2.763920840909478</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.04511296258285332</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.5748821242798573</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>5.111224704960917</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>17.28827333743426</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>40.64416618658591</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>66.79085043905977</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>85.46929327702534</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>90.11538608143253</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>87.97264361820768</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>81.25697516639295</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>69.5293798310838</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>48.13853860674332</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>25.8487907880743</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>10.01862756585896</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.456314531013935</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03135720677890134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94852617381653</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>19.95534367759855</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>75.12055531606185</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J11" t="n">
-        <v>165.3787233449609</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>247.8598362826147</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>307.4920441745523</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M11" t="n">
-        <v>342.144146518162</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>347.6803965095183</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O11" t="n">
-        <v>328.3047393686301</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P11" t="n">
-        <v>280.2004994525345</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.41890585273</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>122.3991072660027</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>44.40204018584423</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>8.529673325881864</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1558820939053224</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.042553414603817</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>10.06887113577897</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>35.8949311607016</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>98.49843466658255</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>168.3495134450383</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>226.3666964472016</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>264.1592577265899</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>271.1507672482094</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O12" t="n">
-        <v>248.0499784298827</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0819761623727</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.0810288536381</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>64.72976375934928</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S12" t="n">
-        <v>19.36497241599632</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>4.202221877284681</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06858904043446166</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8740417611648335</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>7.771025840174616</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I13" t="n">
-        <v>26.28481950848427</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J13" t="n">
-        <v>61.79475251435372</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K13" t="n">
-        <v>101.5477609789688</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>129.9461723826335</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>137.0100189796838</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>133.7522269607968</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>123.541830023553</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7113780957904</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.18907874626619</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R13" t="n">
-        <v>39.30009591564787</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S13" t="n">
-        <v>15.23216414684532</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>3.73454207043156</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04767500515444552</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712531</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426701</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457577</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182841</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847383</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784626</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784131</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790241</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685361</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712531</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426701</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457577</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182841</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6044214847383</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784626</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784131</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790241</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685361</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P20" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457576</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6044214847383</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784626</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790241</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685361</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>96.82500040076256</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>267.0800250437063</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>384.1410621831095</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>444.2052360938753</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>436.6131457153294</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>366.6373339909984</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>274.8615498769725</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>128.4077995300112</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>237.3520609324136</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>381.1737797011951</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>497.3160863887439</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>526.3442334735947</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>414.4156002477546</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>315.430238887758</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>26.73915320330542</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>44.52135861317691</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>113.0593185373415</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>129.6992630432731</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>132.1048159974363</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>105.8421030804326</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>66.80793909597729</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>153.4294339903484</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>351.9153978087988</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>489.3868437550155</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M11" t="n">
-        <v>561.3114467837217</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N11" t="n">
-        <v>555.6142573249115</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>479.0067092096888</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P11" t="n">
-        <v>370.7662118687476</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.4282066381852</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>294.9733114832579</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L12" t="n">
-        <v>254.6862920799771</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>587.7302875545715</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
-        <v>619.1514295084296</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>499.3160532621678</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>383.5703373879796</v>
+        <v>125.708794178759</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>22.96660727472377</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>79.27826915308596</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>157.5361976429497</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>176.5938959415244</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>177.8843993400254</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>148.1269579375927</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>102.9899373606839</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>84.21201855861082</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502855</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528271</v>
+        <v>125.708794178759</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>22.96660727472377</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854534</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>245.0916242622271</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748672</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793721</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927643</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854534</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268384</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348671</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269927</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>125.7087941787544</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.9666072747242</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854534</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>287.7526615081883</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>282.0391115195471</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>80.77020197440535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
